--- a/Testdata/TC02_Register.xlsx
+++ b/Testdata/TC02_Register.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestCoffee496\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778BCF54-80E4-472A-BEA1-08F1CBFAB725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA40B824-7191-4480-B214-4DACE837E002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,7 +1028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1069,13 +1069,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2047,7 +2043,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -2066,34 +2062,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.399999999999999" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="38" t="s">
         <v>57</v>
       </c>
       <c r="K1" s="23" t="s">
@@ -2102,19 +2098,19 @@
       <c r="L1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="39" t="s">
         <v>262</v>
       </c>
-      <c r="O1" s="38" t="s">
+      <c r="O1" s="36" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" s="42"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17" ht="15.6">
       <c r="A2" s="6" t="s">
@@ -2168,7 +2164,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="31"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="6">
         <v>123456</v>
       </c>
@@ -2242,7 +2238,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:17" ht="27">
+    <row r="5" spans="1:17" ht="15.6">
       <c r="A5" s="6" t="s">
         <v>65</v>
       </c>
@@ -2284,7 +2280,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:17" ht="27">
+    <row r="6" spans="1:17" ht="15.6">
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
@@ -2313,10 +2309,10 @@
       <c r="J6" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="7" t="s">
         <v>16</v>
       </c>
@@ -2355,10 +2351,10 @@
       <c r="J7" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="K7" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="L7" s="30"/>
+      <c r="L7" s="17"/>
       <c r="M7" s="7" t="s">
         <v>16</v>
       </c>
@@ -2368,7 +2364,7 @@
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" spans="1:17" ht="15.6">
       <c r="A8" s="6" t="s">
         <v>69</v>
       </c>
@@ -2397,10 +2393,10 @@
       <c r="J8" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="K8" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2439,10 +2435,10 @@
       <c r="J9" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="30"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="7" t="s">
         <v>16</v>
       </c>
@@ -2481,7 +2477,7 @@
       <c r="J10" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="17" t="s">
         <v>138</v>
       </c>
       <c r="L10" s="17"/>
@@ -2523,7 +2519,7 @@
       <c r="J11" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="17" t="s">
         <v>151</v>
       </c>
       <c r="L11" s="17"/>
@@ -2547,7 +2543,7 @@
       <c r="D12" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="21" t="s">
         <v>68</v>
       </c>
@@ -2563,7 +2559,7 @@
       <c r="J12" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="17" t="s">
         <v>155</v>
       </c>
       <c r="L12" s="17"/>
@@ -2605,7 +2601,7 @@
       <c r="J13" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="K13" s="17" t="s">
         <v>160</v>
       </c>
       <c r="L13" s="17"/>
@@ -2647,7 +2643,7 @@
       <c r="J14" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K14" s="17" t="s">
         <v>164</v>
       </c>
       <c r="L14" s="17"/>
@@ -2689,7 +2685,7 @@
       <c r="J15" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="K15" s="17" t="s">
         <v>168</v>
       </c>
       <c r="L15" s="17"/>
@@ -2731,7 +2727,7 @@
       <c r="J16" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="17" t="s">
         <v>181</v>
       </c>
       <c r="L16" s="17"/>
@@ -2758,7 +2754,7 @@
       <c r="E17" s="6">
         <v>123456</v>
       </c>
-      <c r="F17" s="33"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="16" t="s">
         <v>129</v>
       </c>
@@ -2771,7 +2767,7 @@
       <c r="J17" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="K17" s="30" t="s">
+      <c r="K17" s="17" t="s">
         <v>186</v>
       </c>
       <c r="L17" s="17"/>
@@ -2798,7 +2794,7 @@
       <c r="E18" s="6">
         <v>123456</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G18" s="18" t="s">
@@ -2813,7 +2809,7 @@
       <c r="J18" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="17" t="s">
         <v>197</v>
       </c>
       <c r="L18" s="17"/>
@@ -2840,7 +2836,7 @@
       <c r="E19" s="6">
         <v>123456</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G19" s="18" t="s">
@@ -2855,7 +2851,7 @@
       <c r="J19" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="17" t="s">
         <v>200</v>
       </c>
       <c r="L19" s="17"/>
@@ -2882,7 +2878,7 @@
       <c r="E20" s="6">
         <v>123456</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G20" s="18" t="s">
@@ -2897,7 +2893,7 @@
       <c r="J20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="17" t="s">
         <v>203</v>
       </c>
       <c r="L20" s="17"/>
@@ -2924,10 +2920,10 @@
       <c r="E21" s="6">
         <v>123456</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="28" t="s">
         <v>130</v>
       </c>
@@ -2937,7 +2933,7 @@
       <c r="J21" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="17" t="s">
         <v>206</v>
       </c>
       <c r="L21" s="17"/>
@@ -2964,13 +2960,13 @@
       <c r="E22" s="6">
         <v>123456</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="33" t="s">
         <v>95</v>
       </c>
       <c r="I22" s="29" t="s">
@@ -2979,7 +2975,7 @@
       <c r="J22" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="17" t="s">
         <v>209</v>
       </c>
       <c r="L22" s="17"/>
@@ -3006,7 +3002,7 @@
       <c r="E23" s="6">
         <v>123456</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="F23" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="16" t="s">
@@ -3021,7 +3017,7 @@
       <c r="J23" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="17" t="s">
         <v>212</v>
       </c>
       <c r="L23" s="17"/>
@@ -3048,13 +3044,13 @@
       <c r="E24" s="6">
         <v>123456</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="34" t="s">
         <v>97</v>
       </c>
       <c r="I24" s="29" t="s">
@@ -3063,7 +3059,7 @@
       <c r="J24" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="17" t="s">
         <v>212</v>
       </c>
       <c r="L24" s="17"/>
@@ -3090,7 +3086,7 @@
       <c r="E25" s="6">
         <v>123456</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G25" s="16" t="s">
@@ -3105,7 +3101,7 @@
       <c r="J25" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="17" t="s">
         <v>217</v>
       </c>
       <c r="L25" s="17"/>
@@ -3132,20 +3128,20 @@
       <c r="E26" s="6">
         <v>123456</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="37"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="29" t="s">
         <v>221</v>
       </c>
       <c r="J26" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="17" t="s">
         <v>246</v>
       </c>
       <c r="L26" s="17"/>
@@ -3172,7 +3168,7 @@
       <c r="E27" s="6">
         <v>123456</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G27" s="16" t="s">
@@ -3187,7 +3183,7 @@
       <c r="J27" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="17" t="s">
         <v>247</v>
       </c>
       <c r="L27" s="17"/>
@@ -3214,7 +3210,7 @@
       <c r="E28" s="6">
         <v>123456</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G28" s="16" t="s">
@@ -3229,7 +3225,7 @@
       <c r="J28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="K28" s="30" t="s">
+      <c r="K28" s="17" t="s">
         <v>248</v>
       </c>
       <c r="L28" s="17"/>
@@ -3256,7 +3252,7 @@
       <c r="E29" s="6">
         <v>123456</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G29" s="16" t="s">
@@ -3271,7 +3267,7 @@
       <c r="J29" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K29" s="17" t="s">
         <v>248</v>
       </c>
       <c r="L29" s="17"/>
@@ -3298,7 +3294,7 @@
       <c r="E30" s="6">
         <v>123456</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G30" s="16" t="s">
@@ -3307,11 +3303,11 @@
       <c r="H30" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="I30" s="44"/>
+      <c r="I30" s="42"/>
       <c r="J30" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="K30" s="30" t="s">
+      <c r="K30" s="17" t="s">
         <v>249</v>
       </c>
       <c r="L30" s="17"/>
@@ -3338,7 +3334,7 @@
       <c r="E31" s="6">
         <v>123456</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="F31" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G31" s="16" t="s">
@@ -3353,7 +3349,7 @@
       <c r="J31" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="K31" s="30" t="s">
+      <c r="K31" s="17" t="s">
         <v>250</v>
       </c>
       <c r="L31" s="17"/>
@@ -3380,7 +3376,7 @@
       <c r="E32" s="6">
         <v>123456</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G32" s="16" t="s">
@@ -3395,7 +3391,7 @@
       <c r="J32" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="K32" s="30" t="s">
+      <c r="K32" s="17" t="s">
         <v>251</v>
       </c>
       <c r="L32" s="17"/>
@@ -3422,7 +3418,7 @@
       <c r="E33" s="6">
         <v>123456</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G33" s="16" t="s">
@@ -3437,7 +3433,7 @@
       <c r="J33" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="K33" s="17" t="s">
         <v>252</v>
       </c>
       <c r="L33" s="17"/>
@@ -3464,7 +3460,7 @@
       <c r="E34" s="6">
         <v>123456</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G34" s="16" t="s">
@@ -3479,7 +3475,7 @@
       <c r="J34" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="K34" s="17" t="s">
         <v>252</v>
       </c>
       <c r="L34" s="17"/>
@@ -3506,7 +3502,7 @@
       <c r="E35" s="6">
         <v>123456</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G35" s="16" t="s">
@@ -3521,7 +3517,7 @@
       <c r="J35" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="K35" s="30" t="s">
+      <c r="K35" s="17" t="s">
         <v>257</v>
       </c>
       <c r="L35" s="17"/>
@@ -3548,7 +3544,7 @@
       <c r="E36" s="6">
         <v>123456</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="16" t="s">
         <v>68</v>
       </c>
       <c r="G36" s="16" t="s">
@@ -3560,8 +3556,8 @@
       <c r="I36" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="30" t="s">
+      <c r="J36" s="42"/>
+      <c r="K36" s="17" t="s">
         <v>261</v>
       </c>
       <c r="L36" s="17"/>
